--- a/data/CollectedRequirements.xlsx
+++ b/data/CollectedRequirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Desktop\raos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Documents\GitHub\Standards-Research-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104771DA-2A5C-409F-9406-2764BA2F253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54009863-240A-43DD-A26C-DC239C191E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="1323">
   <si>
     <t>text</t>
   </si>
@@ -4303,12 +4303,129 @@
   <si>
     <t>When commanded, for each subarray CSP_Mid.CBF shall automatically determine and apply output word-size-specific re- quantizer gain settings for each beam-channel of each VLBI beam to achieve required S/N performance, and also record and report these settings and beam-channel output power measurements to CSP_Mid.LMC.</t>
   </si>
+  <si>
+    <t>Handing 4-1/2” through 13-3/8” oil field casing.</t>
+  </si>
+  <si>
+    <t>The casing will be 14.5’ to 45’ long.  (Note: should the requirement to make short lengths become cost prohibitive to this project, we may decide to specify range 2 as the minimum.  In that case, minimum pipe length would be 25’)</t>
+  </si>
+  <si>
+    <t>Pass line height is 42”.</t>
+  </si>
+  <si>
+    <t>The grades will range from H55, J55, L80 and P110.</t>
+  </si>
+  <si>
+    <t>Production is planned for 30,000 tons per year based on a three crew operation.</t>
+  </si>
+  <si>
+    <t>This specification does not include the pipe handling tables at the two CNC threaders.  This will be a separate bid process.</t>
+  </si>
+  <si>
+    <t>The winning bidder will have a proven track record in this industry. (Similar installations)</t>
+  </si>
+  <si>
+    <t>Power requirements will be clarified upon final selection of machine tools (480v or 600v, 3ph, etc.)</t>
+  </si>
+  <si>
+    <t>Plan, elevation, and detail drawings are to be included.</t>
+  </si>
+  <si>
+    <t>Material handling system will be installed in an existing building.  Any foundation work is to be excluded from this bid (required piles outside will be bid seperately).</t>
+  </si>
+  <si>
+    <t>Purchased components (motors, gearboxes, hydraulic cyilinders, pneumatic cylinders, bearings, etc.) are to be included as part of this bid.  Please see component list for requirements.</t>
+  </si>
+  <si>
+    <t>Hydraulic controls (valves, blocks, etc) to be included in the base bid.  Hydraulic power unit to be excluded from bid.</t>
+  </si>
+  <si>
+    <t>Operations equipment (threaders, coupling starter, bucker, drifter, weigh/measure system, etc) to be excluded from this bid.</t>
+  </si>
+  <si>
+    <t>Overhead pipe doors to be excluded from this bid.</t>
+  </si>
+  <si>
+    <t>Power distribution components (VFDs, starters, overloads, etc.) are to be excluded from this bid.</t>
+  </si>
+  <si>
+    <t>Control system is to be excluded from this bid.</t>
+  </si>
+  <si>
+    <t>Mechanical system installation is to be excluded from the base bid, however on-site installation supervision from the selected vendor is to be included as part of the base bid.  An optional bid for mechanical installation will be considered.</t>
+  </si>
+  <si>
+    <t>System to be on-site and ready for installation by September 1, 2011.  If this is not achievable, please specify the soonest available delivery date.</t>
+  </si>
+  <si>
+    <t>Conveyor drives are to be SEW Eurodrive R-Series. (1.5HP, 460V)</t>
+  </si>
+  <si>
+    <t>Conveyor couplings are to be Maskaflex type 1</t>
+  </si>
+  <si>
+    <t>Conveyor bearings to be NTN UCP211-200D1 pillow blocks</t>
+  </si>
+  <si>
+    <t>Frame top member to me made from 6” x 4” x ¼” H.S.S.</t>
+  </si>
+  <si>
+    <t>Legs to be adjustable to account for variations in existing floor, with the final position field welded in place (field weld not part of base bid)</t>
+  </si>
+  <si>
+    <t>V rolls to be made from 8620 heat treated to Rc 52-56.  The V is to have an angle of 130° and have a root diameter of 5”.  Final machining to be done after heat treatment.  OD of rolls to be 9” and the roll width is to be 10 ½”.</t>
+  </si>
+  <si>
+    <t>Hydraulic cylinders to be Parker 2H series</t>
+  </si>
+  <si>
+    <t>Pneumatic cylinders to be Parker 2A series</t>
+  </si>
+  <si>
+    <t>Hydraulic/pneumatic valves to be Parker manifold style</t>
+  </si>
+  <si>
+    <t>Motors to be Eaton CharLynn Gerotor/Geroler style</t>
+  </si>
+  <si>
+    <t>All skids to be shaker-style (hydraulic cylinder lifts one end so pipe rolls forward)</t>
+  </si>
+  <si>
+    <t>Skids to allow pipe flow in one direction only</t>
+  </si>
+  <si>
+    <t>Tops of skids to be lines to prevent damage to body of pipe</t>
+  </si>
+  <si>
+    <t>Activation by hydraulic power</t>
+  </si>
+  <si>
+    <t>Tops to be lines to prevent damage to body of pipe</t>
+  </si>
+  <si>
+    <t>Must have the ability to meter one pipe at a time through, while stopping the following pipe</t>
+  </si>
+  <si>
+    <t>Index stops are to have activation by hydraulic power</t>
+  </si>
+  <si>
+    <t>Contacting surfaces to be lined to prevent damage to body of pipe</t>
+  </si>
+  <si>
+    <t>Contacting wheel surfaces to be non-marking and selected for long life</t>
+  </si>
+  <si>
+    <t>Activation by hydraulic or electric power</t>
+  </si>
+  <si>
+    <t>EVRAZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4320,6 +4437,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4357,10 +4480,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4664,11 +4790,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1304"/>
+  <dimension ref="A1:C1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1303" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A1345" sqref="A1345"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -19014,6 +19145,424 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1307" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
